--- a/src/CcExcel.Test/Resources/AllTypes.xlsx
+++ b/src/CcExcel.Test/Resources/AllTypes.xlsx
@@ -417,7 +417,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
-        <v>12.456799999999999</v>
+        <v>12.4568</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
@@ -427,7 +427,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
-        <v>18.559899999999999</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>0.48959399999999997</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
